--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minruilu/Desktop/OneDrive - UNSW/UNSW/2020 Semester 1/comp9417/Group-Assignment/学习用/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minruilu/Desktop/OneDrive - UNSW/UNSW/2020 Semester 1/comp9417/Group-Assignment/COMP9417_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39723D70-C18F-CE4D-86CE-0648F70C4DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE733BE0-389D-B648-A80E-10ED5F5972AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15420" xr2:uid="{0D76818B-D255-DA4E-A105-33D352AEE84E}"/>
+    <workbookView xWindow="740" yWindow="6360" windowWidth="27240" windowHeight="15420" xr2:uid="{0D76818B-D255-DA4E-A105-33D352AEE84E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,30 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>文章题目</t>
-  </si>
-  <si>
-    <t>文章链接</t>
-  </si>
-  <si>
-    <t>20 newsgroups数据介绍以及文本分类实例</t>
-  </si>
-  <si>
-    <t>https://www.jianshu.com/p/244180c064cf</t>
-  </si>
-  <si>
-    <t>新闻上的文本分类：机器学习大乱斗</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/26729228</t>
-  </si>
-  <si>
-    <t>Handling Imbalanced Datasets SMOTE Technique</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dkXB8HH_4-k</t>
+    <t>https://docs.google.com/spreadsheets/d/1ls4zfOxhM_uiuzeCm4IMcwjUTfIhDO9r1j9TQXtXtq0/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -419,13 +398,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4774C-AA33-044C-97E2-1A5CF56FB9BD}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,40 +410,18 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{443FAE1A-4EE5-E04D-8267-FCA222F6543F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{58BB2BD6-AAF4-C147-A425-AB29CEC55E5F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{DC6396D0-BCEE-A444-9B82-3129D4E0835E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>